--- a/Database_do_an.xlsx
+++ b/Database_do_an.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FDEB375-7BD2-4CA8-B522-EE5523CE7EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB99B445-143A-4895-8337-BF5BA4BC3BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{158FB452-20D9-42CD-BB80-F72955CECAA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{158FB452-20D9-42CD-BB80-F72955CECAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>nhan_vien</t>
   </si>
@@ -99,9 +99,6 @@
     <t>ma_nsx</t>
   </si>
   <si>
-    <t>The_loai</t>
-  </si>
-  <si>
     <t>ma_the_loai</t>
   </si>
   <si>
@@ -141,13 +138,16 @@
     <t>ma_nhan_vien</t>
   </si>
   <si>
-    <t>Tinh_trang_don</t>
-  </si>
-  <si>
     <t>thoi_gian_xu_ly</t>
   </si>
   <si>
     <t>anh_dai_dien</t>
+  </si>
+  <si>
+    <t>lich_su_tinh_trang_don</t>
+  </si>
+  <si>
+    <t>the_loai</t>
   </si>
 </sst>
 </file>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78017017-481C-403F-ACE1-6274F19081D4}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -703,34 +703,34 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -738,17 +738,12 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Database_do_an.xlsx
+++ b/Database_do_an.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB99B445-143A-4895-8337-BF5BA4BC3BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236CD72A-4768-403A-92B6-4354858943DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{158FB452-20D9-42CD-BB80-F72955CECAA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>nhan_vien</t>
   </si>
@@ -141,13 +141,16 @@
     <t>thoi_gian_xu_ly</t>
   </si>
   <si>
-    <t>anh_dai_dien</t>
-  </si>
-  <si>
     <t>lich_su_tinh_trang_don</t>
   </si>
   <si>
     <t>the_loai</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>ma_gioi_tinh</t>
   </si>
 </sst>
 </file>
@@ -508,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78017017-481C-403F-ACE1-6274F19081D4}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,10 +530,13 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -543,8 +549,11 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -557,8 +566,11 @@
       <c r="J3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -568,11 +580,8 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -582,11 +591,8 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -597,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -608,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -616,7 +622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -624,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -632,20 +638,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
@@ -653,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>3</v>
       </c>
@@ -661,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>22</v>
       </c>
@@ -669,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -677,72 +686,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
